--- a/ResourcePack/资源表.xlsx
+++ b/ResourcePack/资源表.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Oracle\projs\game\libgdx\uquest\ResourcePack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Oracle\projs\game\libgdx\uquest\ResourcePack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848AC892-8162-4E4E-AEF4-D3FAFDF611D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F9D45C-C9C2-495E-8451-58CCC13FE0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-12660" windowWidth="16440" windowHeight="28440" xr2:uid="{7597A58A-B4A0-4BF6-A48D-1BEAD8F3D493}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7597A58A-B4A0-4BF6-A48D-1BEAD8F3D493}"/>
   </bookViews>
   <sheets>
     <sheet name="art" sheetId="1" r:id="rId1"/>
+    <sheet name="用到的资源包" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +99,20 @@
   </si>
   <si>
     <t>MedicineStorm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiskin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LibGdx与Kenney UI Adven Pack的组合，
+用于本游戏的主体UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包工具：
+GDX Texture Packer 4.10.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,12 +171,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -480,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75330C8F-0FA9-4A9D-B7B3-90FC3FFE70DF}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -560,4 +578,36 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064310BF-E30E-4979-8B33-964344EA1951}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="36.75" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>